--- a/data/en/bal_potavel_ts.xlsx
+++ b/data/en/bal_potavel_ts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Agua\data\en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\matrizaguaen\data\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78E0EDA-F899-4ABE-80F6-FB450A1C112C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CB2D0E-4F05-46B6-81E6-E3F1F31E66EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E3D6597C-0801-4E01-B5C9-9EA8E08CEBC4}"/>
+    <workbookView xWindow="1776" yWindow="840" windowWidth="19812" windowHeight="11520" xr2:uid="{E3D6597C-0801-4E01-B5C9-9EA8E08CEBC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -429,22 +429,22 @@
   <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A13" sqref="A13:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="30.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="30.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -467,7 +467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2008</v>
       </c>
@@ -490,7 +490,7 @@
         <v>109.6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2009</v>
       </c>
@@ -513,7 +513,7 @@
         <v>114.1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2010</v>
       </c>
@@ -536,7 +536,7 @@
         <v>118.4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2011</v>
       </c>
@@ -559,7 +559,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2012</v>
       </c>
@@ -582,7 +582,7 @@
         <v>103.7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2013</v>
       </c>
@@ -605,7 +605,7 @@
         <v>103.1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2014</v>
       </c>
@@ -628,7 +628,7 @@
         <v>101.12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2015</v>
       </c>
@@ -651,7 +651,7 @@
         <v>102.2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2016</v>
       </c>
@@ -674,7 +674,7 @@
         <v>98.16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>2017</v>
       </c>
@@ -697,7 +697,7 @@
         <v>99.66</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2018</v>
       </c>
@@ -720,176 +720,196 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B13" s="3">
+        <v>29.9</v>
+      </c>
+      <c r="C13" s="2">
+        <v>59.6</v>
+      </c>
+      <c r="D13" s="3">
+        <v>55</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G13" s="3">
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" s="2"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C64" s="2"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C65" s="2"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C67" s="2"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C69" s="2"/>
     </row>
   </sheetData>
